--- a/powerapp/data/pocket_assign.xlsx
+++ b/powerapp/data/pocket_assign.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC7DEF-F4C3-074F-BB0C-93AC798FCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994EEBBC-CCED-489F-B767-979433A417FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39700" yWindow="4420" windowWidth="16600" windowHeight="16940" xr2:uid="{E2DA6205-DDAC-2040-BDB9-093F1D8290C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E2DA6205-DDAC-2040-BDB9-093F1D8290C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="hv_pocket" sheetId="1" r:id="rId1"/>
+    <sheet name="pocket_assign" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hv_pocket!$A$1:$B$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pocket_assign!$A$1:$B$109</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
   <si>
     <t>group_trip_id</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>TJYA</t>
+  </si>
+  <si>
+    <t>kV</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -516,6 +519,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,148 +856,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3345F0DA-791D-8C40-A085-C4FEAEF763D7}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="7"/>
+    <col min="3" max="3" width="8.6640625" style="9"/>
+    <col min="4" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" s="7" customFormat="1">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -999,7 +1025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="7" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -1007,7 +1033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="7" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1015,7 +1041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="7" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1023,7 +1049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="7" customFormat="1">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="7" customFormat="1">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -1047,7 +1073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1055,7 +1081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -1063,7 +1089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
@@ -1079,7 +1105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +1113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
@@ -1095,7 +1121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" s="7" customFormat="1">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="7" customFormat="1">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" s="7" customFormat="1">
       <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
@@ -1127,7 +1153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="7" customFormat="1">
       <c r="A34" s="6" t="s">
         <v>23</v>
       </c>
@@ -1135,7 +1161,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" s="7" customFormat="1">
       <c r="A35" s="6" t="s">
         <v>23</v>
       </c>
@@ -1143,7 +1169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="7" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>23</v>
       </c>
@@ -1151,7 +1177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="7" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>43</v>
       </c>
@@ -1159,7 +1185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="7" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
@@ -1167,7 +1193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="7" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>43</v>
       </c>
@@ -1175,7 +1201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="7" customFormat="1">
       <c r="A40" s="6" t="s">
         <v>43</v>
       </c>
@@ -1183,7 +1209,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="7" customFormat="1">
       <c r="A41" s="6" t="s">
         <v>48</v>
       </c>
@@ -1191,7 +1217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" s="7" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
@@ -1199,7 +1225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>51</v>
       </c>
@@ -1207,7 +1233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>51</v>
       </c>
@@ -1215,7 +1241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>51</v>
       </c>
@@ -1223,7 +1249,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
@@ -1231,7 +1257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" s="7" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>51</v>
       </c>
@@ -1239,7 +1265,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" s="7" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
@@ -1247,7 +1273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" s="7" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>51</v>
       </c>
@@ -1255,7 +1281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" s="7" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>51</v>
       </c>
@@ -1263,7 +1289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="7" customFormat="1">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -1271,7 +1297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="7" customFormat="1">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
@@ -1279,7 +1305,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="7" customFormat="1">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
@@ -1287,7 +1313,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="8" customFormat="1">
       <c r="A54" s="6" t="s">
         <v>63</v>
       </c>
@@ -1295,7 +1321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" s="8" customFormat="1">
       <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
@@ -1303,7 +1329,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="8" customFormat="1">
       <c r="A56" s="6" t="s">
         <v>63</v>
       </c>
@@ -1311,7 +1337,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" s="8" customFormat="1">
       <c r="A57" s="6" t="s">
         <v>63</v>
       </c>
@@ -1319,7 +1345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" s="7" customFormat="1">
       <c r="A58" s="6" t="s">
         <v>68</v>
       </c>
@@ -1327,7 +1353,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" s="7" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>68</v>
       </c>
@@ -1335,7 +1361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" s="7" customFormat="1">
       <c r="A60" s="6" t="s">
         <v>68</v>
       </c>
@@ -1343,7 +1369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" s="7" customFormat="1">
       <c r="A61" s="6" t="s">
         <v>68</v>
       </c>
@@ -1351,7 +1377,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" s="7" customFormat="1">
       <c r="A62" s="6" t="s">
         <v>68</v>
       </c>
@@ -1359,7 +1385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" s="7" customFormat="1">
       <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
@@ -1367,7 +1393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" s="7" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>75</v>
       </c>
@@ -1375,135 +1401,153 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:2" s="8" customFormat="1">
       <c r="A81" s="6" t="s">
         <v>96</v>
       </c>
@@ -1511,7 +1555,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" s="8" customFormat="1">
       <c r="A82" s="6" t="s">
         <v>96</v>
       </c>
@@ -1519,7 +1563,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" s="8" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>96</v>
       </c>
@@ -1527,7 +1571,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" s="8" customFormat="1">
       <c r="A84" s="6" t="s">
         <v>96</v>
       </c>
@@ -1535,7 +1579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" s="7" customFormat="1">
       <c r="A85" s="6" t="s">
         <v>101</v>
       </c>
@@ -1543,7 +1587,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" s="7" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>101</v>
       </c>
@@ -1551,7 +1595,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" s="7" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>101</v>
       </c>
@@ -1559,7 +1603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" s="7" customFormat="1">
       <c r="A88" s="6" t="s">
         <v>101</v>
       </c>
@@ -1567,7 +1611,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A89" s="6" t="s">
         <v>106</v>
       </c>
@@ -1575,7 +1619,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A90" s="6" t="s">
         <v>106</v>
       </c>
@@ -1583,7 +1627,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A91" s="6" t="s">
         <v>106</v>
       </c>
@@ -1591,7 +1635,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>106</v>
       </c>
@@ -1599,7 +1643,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
       <c r="A93" s="6" t="s">
         <v>106</v>
       </c>
@@ -1607,7 +1651,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" s="4" customFormat="1">
       <c r="A94" s="4" t="s">
         <v>112</v>
       </c>
@@ -1615,7 +1659,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" s="7" customFormat="1">
       <c r="A95" s="5" t="s">
         <v>114</v>
       </c>
@@ -1623,7 +1667,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" s="7" customFormat="1">
       <c r="A96" s="5" t="s">
         <v>114</v>
       </c>
@@ -1631,7 +1675,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" s="7" customFormat="1">
       <c r="A97" s="5" t="s">
         <v>114</v>
       </c>
@@ -1639,7 +1683,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" s="7" customFormat="1">
       <c r="A98" s="5" t="s">
         <v>114</v>
       </c>
@@ -1647,7 +1691,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" s="7" customFormat="1">
       <c r="A99" s="5" t="s">
         <v>114</v>
       </c>
@@ -1655,7 +1699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" s="7" customFormat="1">
       <c r="A100" s="5" t="s">
         <v>114</v>
       </c>
@@ -1663,7 +1707,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" s="7" customFormat="1">
       <c r="A101" s="5" t="s">
         <v>121</v>
       </c>
@@ -1671,7 +1715,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" s="7" customFormat="1">
       <c r="A102" s="5" t="s">
         <v>123</v>
       </c>
@@ -1679,7 +1723,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" s="7" customFormat="1">
       <c r="A103" s="5" t="s">
         <v>125</v>
       </c>
@@ -1687,7 +1731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" s="7" customFormat="1">
       <c r="A104" s="5" t="s">
         <v>126</v>
       </c>
@@ -1695,7 +1739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" s="7" customFormat="1">
       <c r="A105" s="5" t="s">
         <v>126</v>
       </c>
@@ -1703,7 +1747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" s="7" customFormat="1">
       <c r="A106" s="5" t="s">
         <v>127</v>
       </c>
@@ -1711,7 +1755,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" s="7" customFormat="1">
       <c r="A107" s="5" t="s">
         <v>129</v>
       </c>
@@ -1719,7 +1763,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" s="7" customFormat="1">
       <c r="A108" s="5" t="s">
         <v>129</v>
       </c>
@@ -1727,7 +1771,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" s="7" customFormat="1">
       <c r="A109" s="5" t="s">
         <v>129</v>
       </c>
@@ -1737,7 +1781,7 @@
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <autoFilter ref="A1:B94" xr:uid="{61D5A47D-D33D-415C-BB2B-6C65B298EFEB}"/>
+  <autoFilter ref="A1:B109" xr:uid="{61D5A47D-D33D-415C-BB2B-6C65B298EFEB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/powerapp/data/pocket_assign.xlsx
+++ b/powerapp/data/pocket_assign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\power_app\powerapp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994EEBBC-CCED-489F-B767-979433A417FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322C6C49-B983-A549-BAF6-F17703D91824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E2DA6205-DDAC-2040-BDB9-093F1D8290C0}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="19420" windowHeight="11500" xr2:uid="{E2DA6205-DDAC-2040-BDB9-093F1D8290C0}"/>
   </bookViews>
   <sheets>
     <sheet name="pocket_assign" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="133">
   <si>
     <t>group_trip_id</t>
   </si>
@@ -438,9 +438,6 @@
   </si>
   <si>
     <t>TJYA</t>
-  </si>
-  <si>
-    <t>kV</t>
   </si>
 </sst>
 </file>
@@ -450,7 +447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -519,9 +516,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,168 +850,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3345F0DA-791D-8C40-A085-C4FEAEF763D7}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="9"/>
-    <col min="4" max="16384" width="8.6640625" style="7"/>
+    <col min="3" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" s="7" customFormat="1">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1025,7 +1000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="7" customFormat="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -1033,7 +1008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="7" customFormat="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1041,7 +1016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="7" customFormat="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="7" customFormat="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1057,7 +1032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="7" customFormat="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="23" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="24" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="25" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -1089,7 +1064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="26" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
@@ -1097,7 +1072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="27" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="28" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1113,7 +1088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="29" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
@@ -1121,7 +1096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="30" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
@@ -1129,7 +1104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="7" customFormat="1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="7" customFormat="1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
@@ -1145,7 +1120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="7" customFormat="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
@@ -1153,7 +1128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="7" customFormat="1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>23</v>
       </c>
@@ -1161,7 +1136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="7" customFormat="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>23</v>
       </c>
@@ -1169,7 +1144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="7" customFormat="1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>23</v>
       </c>
@@ -1177,7 +1152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="7" customFormat="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>43</v>
       </c>
@@ -1185,7 +1160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="7" customFormat="1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>43</v>
       </c>
@@ -1193,7 +1168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="7" customFormat="1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>43</v>
       </c>
@@ -1201,7 +1176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="7" customFormat="1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>43</v>
       </c>
@@ -1209,7 +1184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="7" customFormat="1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>48</v>
       </c>
@@ -1217,7 +1192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="7" customFormat="1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
@@ -1225,7 +1200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="43" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>51</v>
       </c>
@@ -1233,7 +1208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="44" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>51</v>
       </c>
@@ -1241,7 +1216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="45" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>51</v>
       </c>
@@ -1249,7 +1224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="46" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
@@ -1257,7 +1232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="7" customFormat="1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>51</v>
       </c>
@@ -1265,7 +1240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="7" customFormat="1">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
@@ -1273,7 +1248,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="7" customFormat="1">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>51</v>
       </c>
@@ -1281,7 +1256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="7" customFormat="1">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>51</v>
       </c>
@@ -1289,7 +1264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="7" customFormat="1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -1297,7 +1272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="7" customFormat="1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
@@ -1305,7 +1280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="7" customFormat="1">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
@@ -1313,7 +1288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="8" customFormat="1">
+    <row r="54" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>63</v>
       </c>
@@ -1321,7 +1296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="8" customFormat="1">
+    <row r="55" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
@@ -1329,7 +1304,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="8" customFormat="1">
+    <row r="56" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>63</v>
       </c>
@@ -1337,7 +1312,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="8" customFormat="1">
+    <row r="57" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>63</v>
       </c>
@@ -1345,7 +1320,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="7" customFormat="1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>68</v>
       </c>
@@ -1353,7 +1328,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="7" customFormat="1">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>68</v>
       </c>
@@ -1361,7 +1336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="7" customFormat="1">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>68</v>
       </c>
@@ -1369,7 +1344,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="7" customFormat="1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>68</v>
       </c>
@@ -1377,7 +1352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="7" customFormat="1">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>68</v>
       </c>
@@ -1385,7 +1360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="7" customFormat="1">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
@@ -1393,7 +1368,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="7" customFormat="1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>75</v>
       </c>
@@ -1401,153 +1376,135 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="7"/>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="7"/>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="9">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="7"/>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C73" s="7"/>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="7"/>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="7"/>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="1:2" s="8" customFormat="1">
+    </row>
+    <row r="81" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>96</v>
       </c>
@@ -1555,7 +1512,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="8" customFormat="1">
+    <row r="82" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>96</v>
       </c>
@@ -1563,7 +1520,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="8" customFormat="1">
+    <row r="83" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>96</v>
       </c>
@@ -1571,7 +1528,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="8" customFormat="1">
+    <row r="84" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>96</v>
       </c>
@@ -1579,7 +1536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="7" customFormat="1">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>101</v>
       </c>
@@ -1587,7 +1544,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="7" customFormat="1">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>101</v>
       </c>
@@ -1595,7 +1552,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="7" customFormat="1">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>101</v>
       </c>
@@ -1603,7 +1560,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="7" customFormat="1">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>101</v>
       </c>
@@ -1611,7 +1568,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="89" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>106</v>
       </c>
@@ -1619,7 +1576,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="90" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>106</v>
       </c>
@@ -1627,7 +1584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="91" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>106</v>
       </c>
@@ -1635,7 +1592,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="92" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>106</v>
       </c>
@@ -1643,7 +1600,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1">
+    <row r="93" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>106</v>
       </c>
@@ -1651,7 +1608,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="4" customFormat="1">
+    <row r="94" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>112</v>
       </c>
@@ -1659,7 +1616,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="7" customFormat="1">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>114</v>
       </c>
@@ -1667,7 +1624,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="7" customFormat="1">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>114</v>
       </c>
@@ -1675,7 +1632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="7" customFormat="1">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>114</v>
       </c>
@@ -1683,7 +1640,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="7" customFormat="1">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>114</v>
       </c>
@@ -1691,7 +1648,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="7" customFormat="1">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>114</v>
       </c>
@@ -1699,7 +1656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="7" customFormat="1">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>114</v>
       </c>
@@ -1707,7 +1664,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="7" customFormat="1">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>121</v>
       </c>
@@ -1715,7 +1672,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="7" customFormat="1">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>123</v>
       </c>
@@ -1723,7 +1680,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="7" customFormat="1">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>125</v>
       </c>
@@ -1731,7 +1688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="7" customFormat="1">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>126</v>
       </c>
@@ -1739,7 +1696,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="7" customFormat="1">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>126</v>
       </c>
@@ -1747,7 +1704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="7" customFormat="1">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>127</v>
       </c>
@@ -1755,7 +1712,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="7" customFormat="1">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>129</v>
       </c>
@@ -1763,7 +1720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="7" customFormat="1">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>129</v>
       </c>
@@ -1771,7 +1728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="7" customFormat="1">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>129</v>
       </c>
